--- a/data/trans_bre/P14_x_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P14_x_R-Provincia-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,95; 15,27</t>
+          <t>4,16; 14,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 5,64</t>
+          <t>0,89; 5,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>63,46; 505,51</t>
+          <t>54,39; 449,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,21; 668,19</t>
+          <t>14,07; 630,81</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 10,03</t>
+          <t>3,54; 9,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,49; 11,24</t>
+          <t>4,28; 11,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>79,36; 482,77</t>
+          <t>78,7; 500,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>50,56; 278,66</t>
+          <t>49,41; 275,88</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 10,01</t>
+          <t>3,74; 10,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 10,31</t>
+          <t>2,21; 10,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>112,06; 2607,6</t>
+          <t>115,83; 2130,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,94; 159,34</t>
+          <t>19,65; 160,88</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 6,96</t>
+          <t>0,56; 6,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 5,45</t>
+          <t>-2,91; 5,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,52; 389,55</t>
+          <t>4,93; 412,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,37; 93,65</t>
+          <t>-27,5; 98,61</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,07; 13,16</t>
+          <t>1,1; 12,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 8,69</t>
+          <t>2,29; 8,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,22; 391,11</t>
+          <t>6,41; 330,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>65,44; 1232,33</t>
+          <t>48,48; 1239,07</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,62; 14,6</t>
+          <t>5,63; 14,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 9,33</t>
+          <t>0,2; 9,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>133,66; 1352,77</t>
+          <t>118,77; 1131,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 113,43</t>
+          <t>-0,91; 110,37</t>
         </is>
       </c>
     </row>
@@ -1278,12 +1278,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,63; 8,63</t>
+          <t>3,7; 8,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 9,83</t>
+          <t>0,71; 9,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>104,67; 607,66</t>
+          <t>99,73; 612,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,46; 162,17</t>
+          <t>11,98; 167,56</t>
         </is>
       </c>
     </row>
@@ -1378,12 +1378,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,73; 10,2</t>
+          <t>4,69; 10,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,17; 9,16</t>
+          <t>4,12; 8,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>90,52; 315,5</t>
+          <t>83,39; 315,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>61,25; 251,18</t>
+          <t>64,94; 246,67</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,69; 8,08</t>
+          <t>5,83; 8,16</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,19; 7,13</t>
+          <t>4,36; 7,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>154,23; 286,66</t>
+          <t>156,63; 296,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>62,21; 129,29</t>
+          <t>60,28; 125,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P14_x_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P14_x_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,16; 14,26</t>
+          <t>4,45; 14,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>54,39; 449,74</t>
+          <t>55,27; 456,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,54; 9,95</t>
+          <t>3,56; 9,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>78,7; 500,98</t>
+          <t>81,56; 467,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 10,02</t>
+          <t>3,29; 9,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>115,83; 2130,91</t>
+          <t>79,32; 2086,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 6,84</t>
+          <t>0,97; 6,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,93; 412,36</t>
+          <t>13,42; 439,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 12,45</t>
+          <t>2,56; 13,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,41; 330,24</t>
+          <t>28,6; 387,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,63; 14,88</t>
+          <t>5,93; 14,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>118,77; 1131,9</t>
+          <t>120,03; 1247,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,7; 8,84</t>
+          <t>3,67; 8,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,73; 612,01</t>
+          <t>95,57; 636,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,69; 10,15</t>
+          <t>4,58; 10,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>83,39; 315,46</t>
+          <t>79,65; 310,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,83; 8,16</t>
+          <t>5,75; 8,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>156,63; 296,42</t>
+          <t>150,9; 286,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
